--- a/public/file/Template_Import_Nilai.xlsx
+++ b/public/file/Template_Import_Nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422DC968-2551-4DBD-939D-0E3D54A9FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533C50E-57C1-4C54-B2DB-44B154571324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>NIS</t>
   </si>
@@ -76,10 +76,67 @@
     <t>Informatika</t>
   </si>
   <si>
-    <t>Bahasa Jawaa</t>
-  </si>
-  <si>
     <t>Prakarya</t>
+  </si>
+  <si>
+    <t>Agama UTS</t>
+  </si>
+  <si>
+    <t>PKN UTS</t>
+  </si>
+  <si>
+    <t>Bahasa Indonesia UTS</t>
+  </si>
+  <si>
+    <t>Bahasa Inggris UTS</t>
+  </si>
+  <si>
+    <t>Matematika UTS</t>
+  </si>
+  <si>
+    <t>Fisika UTS</t>
+  </si>
+  <si>
+    <t>Kimia UTS</t>
+  </si>
+  <si>
+    <t>Biologi UTS</t>
+  </si>
+  <si>
+    <t>Ekonomi UTS</t>
+  </si>
+  <si>
+    <t>Geografi UTS</t>
+  </si>
+  <si>
+    <t>Sosiologi UTS</t>
+  </si>
+  <si>
+    <t>Penjaskes UTS</t>
+  </si>
+  <si>
+    <t>Seni Budaya UTS</t>
+  </si>
+  <si>
+    <t>Sejarah Indonesia UTS</t>
+  </si>
+  <si>
+    <t>Informatika UTS</t>
+  </si>
+  <si>
+    <t>Bahasa Jawa UTS</t>
+  </si>
+  <si>
+    <t>Prakarya UTS</t>
+  </si>
+  <si>
+    <t>Bimbingan Konseling UTS</t>
+  </si>
+  <si>
+    <t>Lainya</t>
+  </si>
+  <si>
+    <t>Bahasa Jawa</t>
   </si>
 </sst>
 </file>
@@ -459,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
@@ -478,9 +535,24 @@
     <col min="18" max="18" width="14.375" customWidth="1"/>
     <col min="19" max="19" width="10.375" customWidth="1"/>
     <col min="20" max="20" width="17.625" customWidth="1"/>
+    <col min="21" max="21" width="10.625" customWidth="1"/>
+    <col min="23" max="23" width="21.375" customWidth="1"/>
+    <col min="24" max="24" width="16.875" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="28" max="28" width="11.75" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="30" max="30" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="12.125" customWidth="1"/>
+    <col min="32" max="32" width="13.375" customWidth="1"/>
+    <col min="33" max="33" width="14.5" customWidth="1"/>
+    <col min="34" max="34" width="19.25" customWidth="1"/>
+    <col min="35" max="35" width="15.5" customWidth="1"/>
+    <col min="36" max="36" width="17" customWidth="1"/>
+    <col min="37" max="37" width="12.125" customWidth="1"/>
+    <col min="38" max="38" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,53 +605,75 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
